--- a/docs/20251218_JIFO_Object_Event_설계.xlsx
+++ b/docs/20251218_JIFO_Object_Event_설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rest-sample-hmuw\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D5BB0-E618-4FDD-A3C9-E3EB77E0E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F336691-5178-471F-96AC-182225A88A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostCellMoveStartConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cell  정보 확인 요청 with Cell ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostCellInfoConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cell 이재 작업 완료 Confirm(Tray  배출 가능 체크)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostCellMoveCompleteConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Load Buffer 이재 완료 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostLoadBufferMoveCompleteConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투입부 Tray 도착 with Tray ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostUnloadBufferMoveCompleteConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배출부 Tray 도착 with Tray ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,19 +138,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostInletTrayArrivalConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostOutletTrayArrivalConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpCellDisposalComplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellDisposalCompleteConfirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,94 +218,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostJigLoadRequestConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpJigArrival</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostJigArrivalConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpRecipeInfoRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostRecipeInfoRequestConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpProessStartReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostProcessStartReportConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpProcessDataReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostProcessDataReportConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpProcessEndReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostProcessEndReportConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpUnloadRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostUnloadRequestConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpUnloadCompleteReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostUnloadCompleteReportConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellInfoRequestConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpCellProcessingDataReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostCellProcessingDataReportConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpOutletMoveComplete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostOutletMoveCompleteConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpOutletTrayUnload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventHostOutletTrayUnloadConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cell 실처리 데이터 보고 응답</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,6 +483,66 @@
   <si>
     <t>Lot</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellMoveStartAck</t>
+  </si>
+  <si>
+    <t>EventHostCellInfoAck</t>
+  </si>
+  <si>
+    <t>EventHostCellMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostLoadBufferMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostUnloadBufferMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletTrayArrivalAck</t>
+  </si>
+  <si>
+    <t>EventHostCellDisposalCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostJigLoadRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostJigArrivalAck</t>
+  </si>
+  <si>
+    <t>EventHostRecipeInfoRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostProcessStartReportAck</t>
+  </si>
+  <si>
+    <t>EventHostProcessDataReportAck</t>
+  </si>
+  <si>
+    <t>EventHostProcessEndReportAck</t>
+  </si>
+  <si>
+    <t>EventHostUnloadRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostUnloadCompleteReportAck</t>
+  </si>
+  <si>
+    <t>EventHostCellInfoRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostCellProcessingDataReportAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletTrayUnloadAck</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayArrivalAck</t>
   </si>
 </sst>
 </file>
@@ -971,34 +951,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -1006,25 +986,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1035,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1064,22 +1044,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1091,22 +1071,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1118,25 +1098,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1147,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1164,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1181,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1198,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1215,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1232,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1249,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1347,7 +1327,7 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1364,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
@@ -1373,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1387,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1406,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1435,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1451,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1467,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1483,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1499,10 +1479,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1515,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1531,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1547,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1563,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1579,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1595,10 +1575,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1611,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1627,10 +1607,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1643,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F19" s="5">
         <v>933</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -1663,16 +1643,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F20" s="5">
         <v>934</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -1683,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F21" s="5">
         <v>933</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -1703,16 +1683,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5">
         <v>934</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1723,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5">
         <v>101</v>
@@ -1741,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5">
         <v>102</v>
@@ -1759,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" s="5">
         <v>905</v>
@@ -1777,10 +1757,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F26" s="5">
         <v>906</v>
@@ -1795,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F27" s="5">
         <v>901</v>
@@ -1813,10 +1793,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F28" s="5">
         <v>902</v>
@@ -1831,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F29" s="5">
         <v>905</v>
@@ -1849,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F30" s="5">
         <v>906</v>
@@ -1867,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5">
         <v>937</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
@@ -1887,16 +1867,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F32" s="5">
         <v>938</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
@@ -1907,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F33" s="5">
         <v>937</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
@@ -1927,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F34" s="5">
         <v>938</v>
@@ -1945,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="5">
         <v>151</v>
@@ -1963,10 +1943,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F36" s="5">
         <v>152</v>
@@ -1981,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F37" s="5">
         <v>153</v>
@@ -1999,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F38" s="5">
         <v>154</v>
@@ -2017,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2033,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2049,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2065,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2081,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2097,10 +2077,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>

--- a/docs/20251218_JIFO_Object_Event_설계.xlsx
+++ b/docs/20251218_JIFO_Object_Event_설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rest-sample-hmuw\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rest-sample-jifo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F336691-5178-471F-96AC-182225A88A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBC79D0-04D5-404D-9D20-530F8B294005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>→</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,9 +160,6 @@
   <si>
     <t>배출부 Tray 도착 Confirm(공 Tray 여부 체크)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell  배출 작업 완료 with Tray ID</t>
   </si>
   <si>
     <t>배출부 Tray  도착</t>
@@ -226,14 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventEqpProessStartReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpProcessDataReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpProcessEndReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,64 +474,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EventHostOutletTrayArrivalAck</t>
+  </si>
+  <si>
+    <t>EventHostProcessEndReportAck</t>
+  </si>
+  <si>
+    <t>EventHostUnloadRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostUnloadCompleteReportAck</t>
+  </si>
+  <si>
+    <t>EventHostCellInfoRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostCellProcessingDataReportAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletTrayUnloadAck</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayArrivalAck</t>
+  </si>
+  <si>
     <t>EventHostCellMoveStartAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostCellInfoAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostCellMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostLoadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostUnloadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostOutletTrayArrivalAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell  배출 작업 완료 with Tray ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostCellDisposalCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostJigLoadRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostRecipeInfoRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostJigArrivalAck</t>
-  </si>
-  <si>
-    <t>EventHostRecipeInfoRequestAck</t>
-  </si>
-  <si>
-    <t>EventHostProcessStartReportAck</t>
-  </si>
-  <si>
-    <t>EventHostProcessDataReportAck</t>
-  </si>
-  <si>
-    <t>EventHostProcessEndReportAck</t>
-  </si>
-  <si>
-    <t>EventHostUnloadRequestAck</t>
-  </si>
-  <si>
-    <t>EventHostUnloadCompleteReportAck</t>
-  </si>
-  <si>
-    <t>EventHostCellInfoRequestAck</t>
-  </si>
-  <si>
-    <t>EventHostCellProcessingDataReportAck</t>
-  </si>
-  <si>
-    <t>EventHostOutletMoveCompleteAck</t>
-  </si>
-  <si>
-    <t>EventHostOutletTrayUnloadAck</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayArrivalAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessDataReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessDataReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessStartReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessStartReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -951,34 +967,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -986,25 +1002,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1015,25 +1031,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1044,22 +1060,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1071,22 +1087,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1098,25 +1114,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1127,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1144,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1161,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1178,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1195,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1212,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1229,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1326,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93971154-F356-4BFD-81EC-15088729851D}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1356,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1386,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1415,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1450,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1463,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1482,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1514,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1546,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1578,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1591,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1610,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1623,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5">
         <v>933</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -1643,16 +1659,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F20" s="5">
         <v>934</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -1663,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="5">
         <v>933</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -1683,16 +1699,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F22" s="5">
         <v>934</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1703,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="5">
         <v>101</v>
@@ -1721,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F24" s="5">
         <v>102</v>
@@ -1739,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F25" s="5">
         <v>905</v>
@@ -1757,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F26" s="5">
         <v>906</v>
@@ -1775,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="F27" s="5">
         <v>901</v>
@@ -1793,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F28" s="5">
         <v>902</v>
@@ -1811,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="5">
         <v>905</v>
@@ -1829,10 +1845,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F30" s="5">
         <v>906</v>
@@ -1847,16 +1863,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" s="5">
         <v>937</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
@@ -1867,16 +1883,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F32" s="5">
         <v>938</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
@@ -1887,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="5">
         <v>937</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
@@ -1907,10 +1923,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F34" s="5">
         <v>938</v>
@@ -1925,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -1943,10 +1959,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F36" s="5">
         <v>152</v>
@@ -1961,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5">
         <v>153</v>
@@ -1979,10 +1995,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F38" s="5">
         <v>154</v>
@@ -1997,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>22</v>
@@ -2013,10 +2029,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2029,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2048,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2061,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2080,7 +2096,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>

--- a/docs/20251218_JIFO_Object_Event_설계.xlsx
+++ b/docs/20251218_JIFO_Object_Event_설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rest-sample-jifo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBC79D0-04D5-404D-9D20-530F8B294005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A66363-1EDD-4231-965E-831723885052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>→</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventEqpProcessEndReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpUnloadRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,87 +473,102 @@
     <t>EventHostOutletTrayArrivalAck</t>
   </si>
   <si>
-    <t>EventHostProcessEndReportAck</t>
+    <t>EventHostCellInfoRequestAck</t>
+  </si>
+  <si>
+    <t>EventHostCellProcessingDataReportAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletMoveCompleteAck</t>
+  </si>
+  <si>
+    <t>EventHostOutletTrayUnloadAck</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayArrivalAck</t>
+  </si>
+  <si>
+    <t>EventHostCellMoveStartAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellInfoAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostLoadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostUnloadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostOutletTrayArrivalAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell  배출 작업 완료 with Tray ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellDisposalCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostJigLoadRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostRecipeInfoRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostJigArrivalAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessDataReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessDataReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessStartReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessStartReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessEndReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessEndReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostUnloadRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostUnloadCompleteReportAck</t>
-  </si>
-  <si>
-    <t>EventHostCellInfoRequestAck</t>
-  </si>
-  <si>
-    <t>EventHostCellProcessingDataReportAck</t>
-  </si>
-  <si>
-    <t>EventHostOutletMoveCompleteAck</t>
-  </si>
-  <si>
-    <t>EventHostOutletTrayUnloadAck</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayArrivalAck</t>
-  </si>
-  <si>
-    <t>EventHostCellMoveStartAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellInfoAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostLoadBufferMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostUnloadBufferMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostOutletTrayArrivalAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell  배출 작업 완료 with Tray ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellDisposalCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostJigLoadRequestAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostRecipeInfoRequestAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostJigArrivalAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpFormationProcessDataReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostFormationProcessDataReportAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpFormationProcessStartReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostFormationProcessStartReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 이벤트와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 이벤트와 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,34 +978,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -1002,25 +1013,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1031,25 +1042,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1060,22 +1071,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1087,22 +1098,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1114,25 +1125,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1143,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1160,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1177,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1194,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1211,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1228,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1245,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1342,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93971154-F356-4BFD-81EC-15088729851D}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1352,7 +1363,9 @@
     <col min="3" max="3" width="13.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.9140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="21.08203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
@@ -1372,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1402,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1434,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1466,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1498,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1530,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1562,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1594,7 +1607,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1607,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1626,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1639,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>36</v>
@@ -1648,7 +1661,7 @@
         <v>933</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -1659,16 +1672,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" s="5">
         <v>934</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -1679,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>37</v>
@@ -1688,7 +1701,7 @@
         <v>933</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -1699,16 +1712,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="5">
         <v>934</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1719,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>38</v>
@@ -1737,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F24" s="5">
         <v>102</v>
@@ -1755,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F25" s="5">
         <v>905</v>
@@ -1773,10 +1786,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F26" s="5">
         <v>906</v>
@@ -1791,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F27" s="5">
         <v>901</v>
@@ -1809,10 +1822,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F28" s="5">
         <v>902</v>
@@ -1827,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5">
         <v>905</v>
@@ -1845,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5">
         <v>906</v>
@@ -1863,16 +1876,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5">
         <v>937</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
@@ -1883,16 +1896,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F32" s="5">
         <v>938</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
@@ -1903,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="5">
         <v>937</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
@@ -1923,10 +1936,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F34" s="5">
         <v>938</v>
@@ -1934,14 +1947,12 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="5">
-        <v>33</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -1949,38 +1960,40 @@
       <c r="F35" s="5">
         <v>151</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="5">
-        <v>34</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F36" s="5">
         <v>152</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="5">
         <v>153</v>
@@ -1989,16 +2002,16 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F38" s="5">
         <v>154</v>
@@ -2007,7 +2020,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>0</v>
@@ -2023,7 +2036,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2032,14 +2045,14 @@
         <v>31</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>0</v>
@@ -2048,14 +2061,14 @@
         <v>32</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -2064,14 +2077,14 @@
         <v>27</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>0</v>
@@ -2080,14 +2093,14 @@
         <v>33</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -2096,7 +2109,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>

--- a/docs/20251218_JIFO_Object_Event_설계.xlsx
+++ b/docs/20251218_JIFO_Object_Event_설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rest-sample-jifo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A66363-1EDD-4231-965E-831723885052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F52C8-BD33-4B16-840C-9CDA204EBBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>→</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,9 +160,6 @@
   <si>
     <t>배출부 Tray 도착 Confirm(공 Tray 여부 체크)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배출부 Tray  도착</t>
   </si>
   <si>
     <t>Tray  도착 보고 컨펌</t>
@@ -231,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventEqpCellProcessingDataReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventEqpOutletMoveComplete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,105 +463,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EventHostInletTrayArrivalAck</t>
+  </si>
+  <si>
+    <t>EventHostCellMoveStartAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellInfoAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostLoadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostUnloadBufferMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EventHostOutletTrayArrivalAck</t>
-  </si>
-  <si>
-    <t>EventHostCellInfoRequestAck</t>
-  </si>
-  <si>
-    <t>EventHostCellProcessingDataReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell  배출 작업 완료 with Tray ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostCellDisposalCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostJigLoadRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostRecipeInfoRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostJigArrivalAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessDataReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessDataReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessStartReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessStartReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpFormationProcessEndReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostFormationProcessEndReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostUnloadRequestAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostUnloadCompleteReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 이벤트와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 이벤트와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEqpIROCVCellProcessingDataReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHostIROCVCellProcessingDataReportAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배출부 Tray  도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostOutletMoveCompleteAck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EventHostOutletTrayUnloadAck</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayArrivalAck</t>
-  </si>
-  <si>
-    <t>EventHostCellMoveStartAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellInfoAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostLoadBufferMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostUnloadBufferMoveCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostOutletTrayArrivalAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell  배출 작업 완료 with Tray ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostCellDisposalCompleteAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostJigLoadRequestAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostRecipeInfoRequestAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostJigArrivalAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpFormationProcessDataReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostFormationProcessDataReportAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpFormationProcessStartReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostFormationProcessStartReportAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEqpFormationProcessEndReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostFormationProcessEndReportAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostUnloadRequestAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventHostUnloadCompleteReportAck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번 이벤트와 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6번 이벤트와 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,34 +976,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -1013,25 +1011,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1042,25 +1040,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1071,22 +1069,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1098,22 +1096,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1125,25 +1123,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1154,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1171,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1188,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1205,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1222,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1239,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1256,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1353,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93971154-F356-4BFD-81EC-15088729851D}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1385,7 +1383,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1415,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1444,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1479,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1492,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1511,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1543,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1575,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1607,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1620,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1639,7 +1637,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1652,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="5">
         <v>933</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -1672,16 +1670,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5">
         <v>934</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -1692,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="5">
         <v>933</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -1712,16 +1710,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5">
         <v>934</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1732,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="5">
         <v>101</v>
@@ -1750,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F24" s="5">
         <v>102</v>
@@ -1768,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F25" s="5">
         <v>905</v>
@@ -1786,10 +1784,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F26" s="5">
         <v>906</v>
@@ -1804,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F27" s="5">
         <v>901</v>
@@ -1822,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F28" s="5">
         <v>902</v>
@@ -1840,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F29" s="5">
         <v>905</v>
@@ -1858,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F30" s="5">
         <v>906</v>
@@ -1876,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="5">
         <v>937</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
@@ -1896,16 +1894,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F32" s="5">
         <v>938</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
@@ -1916,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="5">
         <v>937</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
@@ -1936,10 +1934,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F34" s="5">
         <v>938</v>
@@ -1952,16 +1950,14 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5">
         <v>151</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
@@ -1970,16 +1966,14 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="5">
         <v>152</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
@@ -1990,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F37" s="5">
         <v>153</v>
@@ -2008,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F38" s="5">
         <v>154</v>
@@ -2026,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>22</v>
@@ -2042,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2058,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2077,7 +2071,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2090,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2109,7 +2103,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
